--- a/documentation/build_orders/zerg/ravanger_ling_bane.xlsx
+++ b/documentation/build_orders/zerg/ravanger_ling_bane.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\zerg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC78EF1-6C8E-498B-A738-42901EFD13CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A03F2F-227A-4EFF-A350-3E110099F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="8265" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E2F8-D576-4889-93BF-4269B7626941}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +517,9 @@
       <c r="C2">
         <v>15</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -528,6 +531,9 @@
       <c r="C3">
         <v>36</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -539,6 +545,9 @@
       <c r="C4">
         <v>41</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -549,6 +558,9 @@
       </c>
       <c r="C5">
         <v>48</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,6 +573,9 @@
       <c r="C6">
         <v>68</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -572,6 +587,9 @@
       <c r="C7">
         <v>88</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -583,6 +601,9 @@
       <c r="C8">
         <v>109</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -594,6 +615,9 @@
       <c r="C9">
         <v>109</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -605,6 +629,9 @@
       <c r="C10">
         <v>110</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -616,6 +643,9 @@
       <c r="C11">
         <v>110</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -627,6 +657,9 @@
       <c r="C12">
         <v>119</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -638,6 +671,9 @@
       <c r="C13">
         <v>144</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -649,6 +685,9 @@
       <c r="C14">
         <v>144</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -660,6 +699,9 @@
       <c r="C15">
         <v>155</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -671,8 +713,11 @@
       <c r="C16">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -682,8 +727,11 @@
       <c r="C17">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -693,8 +741,11 @@
       <c r="C18">
         <v>199</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -704,8 +755,11 @@
       <c r="C19">
         <v>199</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -715,8 +769,11 @@
       <c r="C20">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -726,8 +783,11 @@
       <c r="C21">
         <v>227</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -737,8 +797,11 @@
       <c r="C22">
         <v>231</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -748,8 +811,11 @@
       <c r="C23">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -759,8 +825,11 @@
       <c r="C24">
         <v>236</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -770,8 +839,11 @@
       <c r="C25">
         <v>244</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -781,8 +853,11 @@
       <c r="C26">
         <v>244</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -792,8 +867,11 @@
       <c r="C27">
         <v>251</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -803,8 +881,11 @@
       <c r="C28">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -814,8 +895,11 @@
       <c r="C29">
         <v>257</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -825,8 +909,11 @@
       <c r="C30">
         <v>257</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -836,8 +923,11 @@
       <c r="C31">
         <v>268</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -847,8 +937,11 @@
       <c r="C32">
         <v>298</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -858,8 +951,11 @@
       <c r="C33">
         <v>306</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -869,8 +965,11 @@
       <c r="C34">
         <v>365</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -880,8 +979,11 @@
       <c r="C35">
         <v>365</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -891,8 +993,11 @@
       <c r="C36">
         <v>365</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -902,8 +1007,11 @@
       <c r="C37">
         <v>365</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -913,8 +1021,11 @@
       <c r="C38">
         <v>365</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -924,8 +1035,11 @@
       <c r="C39">
         <v>388</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -935,8 +1049,11 @@
       <c r="C40">
         <v>389</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -946,8 +1063,11 @@
       <c r="C41">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -957,8 +1077,11 @@
       <c r="C42">
         <v>405</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -968,8 +1091,11 @@
       <c r="C43">
         <v>407</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -979,8 +1105,11 @@
       <c r="C44">
         <v>407</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1119,11 @@
       <c r="C45">
         <v>409</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1133,11 @@
       <c r="C46">
         <v>432</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1012,8 +1147,11 @@
       <c r="C47">
         <v>456</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1023,8 +1161,11 @@
       <c r="C48">
         <v>465</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1034,8 +1175,11 @@
       <c r="C49">
         <v>480</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1045,8 +1189,11 @@
       <c r="C50">
         <v>480</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1056,8 +1203,11 @@
       <c r="C51">
         <v>480</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1067,8 +1217,11 @@
       <c r="C52">
         <v>480</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1078,8 +1231,11 @@
       <c r="C53">
         <v>480</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1089,8 +1245,11 @@
       <c r="C54">
         <v>480</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1100,8 +1259,11 @@
       <c r="C55">
         <v>485</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1111,8 +1273,11 @@
       <c r="C56">
         <v>485</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1122,8 +1287,11 @@
       <c r="C57">
         <v>485</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1133,8 +1301,11 @@
       <c r="C58">
         <v>485</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1144,8 +1315,11 @@
       <c r="C59">
         <v>485</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1155,8 +1329,11 @@
       <c r="C60">
         <v>485</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1166,8 +1343,11 @@
       <c r="C61">
         <v>485</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1177,8 +1357,11 @@
       <c r="C62">
         <v>485</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1188,8 +1371,11 @@
       <c r="C63">
         <v>485</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1199,8 +1385,11 @@
       <c r="C64">
         <v>485</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1210,8 +1399,11 @@
       <c r="C65">
         <v>486</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1221,8 +1413,11 @@
       <c r="C66">
         <v>492</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1232,8 +1427,11 @@
       <c r="C67">
         <v>492</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1243,8 +1441,11 @@
       <c r="C68">
         <v>498</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1253,6 +1454,9 @@
       </c>
       <c r="C69">
         <v>515</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
